--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 6 (12, 18, 34, 42, 21)/MDD 8 (38, 9, 49, 26, 34)/ANN_128nodes_Uniform0.05Virtual_Control(12, 18, 34, 42, 21)_MDD(38, 9, 49, 26, 34)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 6 (12, 18, 34, 42, 21)/MDD 8 (38, 9, 49, 26, 34)/ANN_128nodes_Uniform0.05Virtual_Control(12, 18, 34, 42, 21)_MDD(38, 9, 49, 26, 34)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999996634702071</v>
+        <v>0.9997662447556031</v>
       </c>
       <c r="E2">
-        <v>0.9999996634702071</v>
+        <v>0.9997662447556031</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.4893260956056648</v>
+        <v>0.108104172662829</v>
       </c>
       <c r="E3">
-        <v>0.4893260956056648</v>
+        <v>0.108104172662829</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2.389275902017792E-06</v>
+        <v>6.686287373522016E-05</v>
       </c>
       <c r="E4">
-        <v>2.389275902017792E-06</v>
+        <v>6.686287373522016E-05</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>5.766566668220746E-12</v>
+        <v>1.2895550606824E-06</v>
       </c>
       <c r="E5">
-        <v>5.766566668220746E-12</v>
+        <v>1.2895550606824E-06</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9999999991570179</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0.9999999991570179</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9999922539860652</v>
+        <v>0.9998061873736105</v>
       </c>
       <c r="E7">
-        <v>7.746013934828433E-06</v>
+        <v>0.0001938126263895112</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999999740178906</v>
+        <v>0.99999999956528</v>
       </c>
       <c r="E8">
-        <v>2.598210935289558E-08</v>
+        <v>4.347200377452509E-10</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.003319261347926853</v>
+        <v>0.09476087280225547</v>
       </c>
       <c r="E9">
-        <v>0.9966807386520732</v>
+        <v>0.9052391271977446</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9999999998711324</v>
+        <v>0.9999999999995506</v>
       </c>
       <c r="E10">
-        <v>1.288675832711306E-10</v>
+        <v>4.494182803682634E-13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.002896551213046127</v>
+        <v>0.002803311683750765</v>
       </c>
       <c r="E11">
-        <v>0.9971034487869539</v>
+        <v>0.9971966883162492</v>
       </c>
       <c r="F11">
-        <v>4.802293300628662</v>
+        <v>6.334166049957275</v>
       </c>
       <c r="G11">
         <v>0.6</v>
